--- a/3bees_schedule.xlsx
+++ b/3bees_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amrei/Documents/homepage/distill_homepage/Slubi_distill_homepage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B200BA4-BD94-8C49-8BE6-C53CA938398A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D93DF0-313C-B544-8064-74A1EFA43D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="3960" windowWidth="27640" windowHeight="16940" xr2:uid="{409AFE47-B704-6B47-9E2E-ED574346614A}"/>
   </bookViews>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">15th Jan.2024 </t>
   </si>
   <si>
-    <t xml:space="preserve">29th Jan.2024 </t>
+    <t xml:space="preserve">12th Feb.2024 </t>
   </si>
 </sst>
 </file>

--- a/3bees_schedule.xlsx
+++ b/3bees_schedule.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amrei/Documents/homepage/distill_homepage/Slubi_distill_homepage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D93DF0-313C-B544-8064-74A1EFA43D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9014A337-789C-4A47-9FCE-D12B4C0C4F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="3960" windowWidth="27640" windowHeight="16940" xr2:uid="{409AFE47-B704-6B47-9E2E-ED574346614A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Linux Basics</t>
   </si>
@@ -68,10 +68,34 @@
     <t xml:space="preserve">11th Dec 2023 </t>
   </si>
   <si>
-    <t xml:space="preserve">15th Jan.2024 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12th Feb.2024 </t>
+    <t>26th Feb 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12th Feb 2024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15th Jan 2024 </t>
+  </si>
+  <si>
+    <t>Functions in R</t>
+  </si>
+  <si>
+    <t>11th March 2024</t>
+  </si>
+  <si>
+    <t>Introduction to Python</t>
+  </si>
+  <si>
+    <t>25th Match 2024</t>
+  </si>
+  <si>
+    <t>Introduction to Machine Learning</t>
+  </si>
+  <si>
+    <t>8th April 2024</t>
+  </si>
+  <si>
+    <t>Intermediate ggplot in R</t>
   </si>
 </sst>
 </file>
@@ -127,9 +151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,7 +191,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -273,7 +297,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,7 +439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -423,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B0A0D7-97CC-0A48-A3C6-1C773D44FC17}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,7 +489,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -477,6 +501,38 @@
       </c>
       <c r="B6" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
